--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,40 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>داندي صلصة صفيح  - 380 جم</t>
-  </si>
-  <si>
-    <t>مناديل فاميليا سحب تريبل 3 طبقة - 500 منديل</t>
-  </si>
-  <si>
-    <t>مسحوق ليدر عادى لافندر - 2 كجم</t>
+    <t>العراف أرز رفيع- 1 كجم</t>
+  </si>
+  <si>
+    <t>مكرونة خطيرة فرن - 280 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة اسباجيتى - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة خواتم - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة شعرية - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة فرن - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة مرمرية - 350 جم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون اخضر - 25 فتلة</t>
+  </si>
+  <si>
+    <t>شاى ليبتون اخضر بالنعناع - 25 فتلة</t>
+  </si>
+  <si>
+    <t>ماكسى ليمون نعناع - 1 لتر</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -407,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,70 +459,206 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5084</v>
+        <v>3431</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>546</v>
+        <v>230.25</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>5084</v>
+        <v>5868</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>22.75</v>
+        <v>139.25</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>8089</v>
+        <v>7702</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>415</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>10124</v>
+        <v>7703</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>169.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>7704</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>168.25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>7705</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>168</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7707</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>168.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>9796</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>261</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+      <c r="D9">
+        <v>1452</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9796</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>30.25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>9797</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>30.25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>9797</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1452</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>25278</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,34 +37,37 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>العراف أرز رفيع- 1 كجم</t>
-  </si>
-  <si>
-    <t>مكرونة خطيرة فرن - 280 جم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة اسباجيتى - 350 جم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة خواتم - 350 جم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة شعرية - 350 جم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة فرن - 350 جم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة مرمرية - 350 جم</t>
-  </si>
-  <si>
-    <t>شاى ليبتون اخضر - 25 فتلة</t>
-  </si>
-  <si>
-    <t>شاى ليبتون اخضر بالنعناع - 25 فتلة</t>
-  </si>
-  <si>
-    <t>ماكسى ليمون نعناع - 1 لتر</t>
+    <t>سفن اب ستار كانز - 320 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى تفاح - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى كوكتيل - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى كوكتيل - 1 لتر</t>
+  </si>
+  <si>
+    <t>عصير بيتى جوافة - 1 لتر</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق تفاح- 3 كجم</t>
+  </si>
+  <si>
+    <t>فيبا سائل أطباق ليمون- 3 كجم</t>
+  </si>
+  <si>
+    <t>حفاضات مولفيكس جامبو مقاس 6 - 48 حفاضة</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 540 مل</t>
+  </si>
+  <si>
+    <t>سمنة حبوبة نباتى صفراء - 300 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة اسباجيتى - 1 كجم</t>
   </si>
   <si>
     <t>YES</t>
@@ -459,41 +462,41 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3431</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>230.25</v>
+        <v>334</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>5868</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>139.25</v>
+        <v>189.25</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>7702</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -502,32 +505,32 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>170</v>
+        <v>189.25</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>7703</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>169.5</v>
+        <v>332</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>7704</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -536,92 +539,92 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>168.25</v>
+        <v>330</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>7705</v>
+        <v>1619</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>168</v>
+        <v>399.5</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>7707</v>
+        <v>1620</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>168.5</v>
+        <v>398.75</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>9796</v>
+        <v>3896</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>1452</v>
+        <v>954</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>9796</v>
+        <v>3896</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>30.25</v>
+        <v>318</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>9797</v>
+        <v>8926</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>30.25</v>
+        <v>488.5</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -629,36 +632,36 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>9797</v>
+        <v>11403</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1452</v>
+        <v>339.25</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>25278</v>
+        <v>13488</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>104</v>
+        <v>241.25</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,37 +37,40 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>سفن اب ستار كانز - 320 مل</t>
-  </si>
-  <si>
-    <t>عصير بيتى تفاح - 235 مل</t>
-  </si>
-  <si>
-    <t>عصير بيتى كوكتيل - 235 مل</t>
-  </si>
-  <si>
-    <t>عصير بيتى كوكتيل - 1 لتر</t>
-  </si>
-  <si>
-    <t>عصير بيتى جوافة - 1 لتر</t>
-  </si>
-  <si>
-    <t>فيبا سائل أطباق تفاح- 3 كجم</t>
-  </si>
-  <si>
-    <t>فيبا سائل أطباق ليمون- 3 كجم</t>
-  </si>
-  <si>
-    <t>حفاضات مولفيكس جامبو مقاس 6 - 48 حفاضة</t>
-  </si>
-  <si>
-    <t>زيت حبوبة خليط - 540 مل</t>
-  </si>
-  <si>
-    <t>سمنة حبوبة نباتى صفراء - 300 جم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة اسباجيتى - 1 كجم</t>
+    <t>عصير جهينة جوافة - 235 مل</t>
+  </si>
+  <si>
+    <t>شامبو سباركل مشكل 30جنية كميه أكبر - 40 شريط</t>
+  </si>
+  <si>
+    <t>عصير بست كوكتيل كيس - 190 مل</t>
+  </si>
+  <si>
+    <t>عصير بست تفاح كيس - 190 مل</t>
+  </si>
+  <si>
+    <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
+  </si>
+  <si>
+    <t>شامبو وبسلم سباركل للشعر العادي - 350 مل</t>
+  </si>
+  <si>
+    <t>حفاضات جود كير مقاس 5 - 100 حفاضة</t>
+  </si>
+  <si>
+    <t>شويبس يوسفى - 950 مل</t>
+  </si>
+  <si>
+    <t>بيبسى - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>ميرندا برتقال - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>شاى الكبوس ناعم - 30 جم</t>
+  </si>
+  <si>
+    <t>اولويز الترا سليم بلمسة الاوليفيرا  طويل جدا عرض 12+2 مجانا- 14 فوطة</t>
   </si>
   <si>
     <t>YES</t>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,7 +465,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>140</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -471,49 +474,49 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>334</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>143</v>
+        <v>1622</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>189.25</v>
+        <v>285</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>144</v>
+        <v>1776</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>189.25</v>
+        <v>267</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>148</v>
+        <v>1777</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -522,15 +525,15 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>332</v>
+        <v>266</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>149</v>
+        <v>2912</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -539,58 +542,58 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>330</v>
+        <v>75.25</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>1619</v>
+        <v>2912</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>399.5</v>
+        <v>602</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>1620</v>
+        <v>6034</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>398.75</v>
+        <v>1092</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>3896</v>
+        <v>6034</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>954</v>
+        <v>45.5</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -598,70 +601,155 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>3896</v>
+        <v>6097</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>318</v>
+        <v>853.5</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>8926</v>
+        <v>6097</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>488.5</v>
+        <v>426.75</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>11403</v>
+        <v>8649</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>339.25</v>
+        <v>143.25</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>13488</v>
+        <v>8915</v>
       </c>
       <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>181.25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>8939</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>181.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>9082</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>9082</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>241.25</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D16">
+        <v>1800</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>21077</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>720</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>21077</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,46 +37,28 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير جهينة جوافة - 235 مل</t>
-  </si>
-  <si>
-    <t>شامبو سباركل مشكل 30جنية كميه أكبر - 40 شريط</t>
-  </si>
-  <si>
-    <t>عصير بست كوكتيل كيس - 190 مل</t>
-  </si>
-  <si>
-    <t>عصير بست تفاح كيس - 190 مل</t>
-  </si>
-  <si>
-    <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
-  </si>
-  <si>
-    <t>شامبو وبسلم سباركل للشعر العادي - 350 مل</t>
-  </si>
-  <si>
-    <t>حفاضات جود كير مقاس 5 - 100 حفاضة</t>
-  </si>
-  <si>
-    <t>شويبس يوسفى - 950 مل</t>
-  </si>
-  <si>
-    <t>بيبسى - 1.47 لتر</t>
+    <t>ارز الساعة - 1 كجم</t>
+  </si>
+  <si>
+    <t>حلاوة الرشيدى الميزان - 250 جم</t>
+  </si>
+  <si>
+    <t>اولويز ماكسى سميكة طويل بالالوفيرا - 8 فوطة</t>
+  </si>
+  <si>
+    <t>صلصة دهشة ظرف - 35 جم</t>
+  </si>
+  <si>
+    <t>شويبس ليمون نعناع جيب - 240 مل</t>
   </si>
   <si>
     <t>ميرندا برتقال - 1.47 لتر</t>
   </si>
   <si>
-    <t>شاى الكبوس ناعم - 30 جم</t>
-  </si>
-  <si>
-    <t>اولويز الترا سليم بلمسة الاوليفيرا  طويل جدا عرض 12+2 مجانا- 14 فوطة</t>
+    <t>صابون لوكس بشرة نضرة - 115 جم</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -434,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,291 +447,189 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>361</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>189</v>
+        <v>343.75</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1622</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>1776</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>267</v>
+        <v>1080</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>1777</v>
+        <v>4372</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
       <c r="D5">
-        <v>266</v>
+        <v>27.75</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2912</v>
+        <v>4372</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>75.25</v>
+        <v>444</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2912</v>
+        <v>5086</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>602</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>6034</v>
+        <v>5086</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1092</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>6034</v>
+        <v>5490</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>45.5</v>
+        <v>269.25</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>6097</v>
+        <v>8939</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>853.5</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>6097</v>
+        <v>11689</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>426.75</v>
+        <v>96.5</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>8649</v>
+        <v>11689</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>143.25</v>
+        <v>772</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>8915</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>181.25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>8939</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>181.5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>9082</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>9082</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1800</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>21077</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>720</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>21077</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,28 +37,40 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ارز الساعة - 1 كجم</t>
-  </si>
-  <si>
-    <t>حلاوة الرشيدى الميزان - 250 جم</t>
-  </si>
-  <si>
-    <t>اولويز ماكسى سميكة طويل بالالوفيرا - 8 فوطة</t>
-  </si>
-  <si>
-    <t>صلصة دهشة ظرف - 35 جم</t>
-  </si>
-  <si>
-    <t>شويبس ليمون نعناع جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>ميرندا برتقال - 1.47 لتر</t>
-  </si>
-  <si>
-    <t>صابون لوكس بشرة نضرة - 115 جم</t>
+    <t>دقيق حبوبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>سفن اب كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>تونة دولفين قطع بارد - 185 جم</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>بقسماط الضحى ناعم - 300 جم</t>
+  </si>
+  <si>
+    <t>شاى ليبتون اخضر - 25 فتلة</t>
+  </si>
+  <si>
+    <t>فرصة دقيق - 1 كجم</t>
+  </si>
+  <si>
+    <t>تويست مشروب طاقة -اوريجنال 250 مل</t>
+  </si>
+  <si>
+    <t>برغل الضحى ناعم - 500 جم</t>
+  </si>
+  <si>
+    <t>شويبس اناناس بلاستيك - 250 مل</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -416,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,189 +459,274 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>343.75</v>
+        <v>204.75</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>186</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>186</v>
+        <v>944</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1080</v>
+        <v>2688</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>4372</v>
+        <v>944</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>27.75</v>
+        <v>1344</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>4372</v>
+        <v>944</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>444</v>
+        <v>672</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>5086</v>
+        <v>944</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>5086</v>
+        <v>2778</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>5490</v>
+        <v>6957</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>269.25</v>
+        <v>18.5</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>8939</v>
+        <v>6957</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>11689</v>
+        <v>9796</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>96.5</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>11689</v>
+        <v>9796</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>772</v>
+        <v>1488</v>
       </c>
       <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>10641</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>191.75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>11039</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>280</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>11409</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>54.25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>11409</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1085</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>11681</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Product ID</t>
   </si>
@@ -40,37 +40,34 @@
     <t>دقيق حبوبة - 1 كجم</t>
   </si>
   <si>
-    <t>سفن اب كانز جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>تونة دولفين قطع بارد - 185 جم</t>
-  </si>
-  <si>
-    <t>كوكا كولا - 2.45 لتر</t>
-  </si>
-  <si>
-    <t>بقسماط الضحى ناعم - 300 جم</t>
-  </si>
-  <si>
-    <t>شاى ليبتون اخضر - 25 فتلة</t>
-  </si>
-  <si>
-    <t>فرصة دقيق - 1 كجم</t>
-  </si>
-  <si>
-    <t>تويست مشروب طاقة -اوريجنال 250 مل</t>
-  </si>
-  <si>
-    <t>برغل الضحى ناعم - 500 جم</t>
-  </si>
-  <si>
-    <t>شويبس اناناس بلاستيك - 250 مل</t>
+    <t>شاى ليبتون ناعم  - 250 جم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا تواليت 2 طبقة - 2 رول</t>
+  </si>
+  <si>
+    <t>عصير تانج برتقال بودر برطمان - 450 جم</t>
+  </si>
+  <si>
+    <t>بيبسى - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>شاى الكبوس - 100 جرام</t>
+  </si>
+  <si>
+    <t>مناديل بابيا سحب 4 طبقة - 500 منديل</t>
+  </si>
+  <si>
+    <t>سكر حبوبة ابيض فاخر - 1 كجم</t>
+  </si>
+  <si>
+    <t>بسكويت اوريو مغطى بالشوكلاتة 2 قطع - 31.3 جم</t>
+  </si>
+  <si>
+    <t>عصير تانج مانجو بودر برطمان - 450 جم</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -428,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>204.75</v>
+        <v>203.5</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -476,16 +473,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>435</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>295</v>
+        <v>53.75</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -493,33 +490,33 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>944</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2688</v>
+        <v>2580</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>944</v>
+        <v>1703</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>1344</v>
+        <v>191.25</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -527,16 +524,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>944</v>
+        <v>8688</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>672</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -544,16 +541,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>944</v>
+        <v>8688</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>56</v>
+        <v>1215</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -561,16 +558,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2778</v>
+        <v>8915</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>205</v>
+        <v>204.5</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
@@ -578,16 +575,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>6957</v>
+        <v>10093</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>18.5</v>
+        <v>35.25</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -595,16 +592,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>6957</v>
+        <v>10093</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>370</v>
+        <v>2115</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -612,16 +609,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>9796</v>
+        <v>11581</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>497.5</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -629,16 +626,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>9796</v>
+        <v>11793</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1488</v>
+        <v>295</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -646,16 +643,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>10641</v>
+        <v>12058</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>191.75</v>
+        <v>1680</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -663,16 +660,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>11039</v>
+        <v>12058</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
@@ -680,16 +677,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>11409</v>
+        <v>23335</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>54.25</v>
+        <v>79.5</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -697,35 +694,18 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>11409</v>
+        <v>23335</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1085</v>
+        <v>636</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>11681</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>106</v>
-      </c>
-      <c r="E17" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,37 +37,49 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>دقيق حبوبة - 1 كجم</t>
-  </si>
-  <si>
     <t>شاى ليبتون ناعم  - 250 جم</t>
   </si>
   <si>
-    <t>مناديل فاميليا تواليت 2 طبقة - 2 رول</t>
-  </si>
-  <si>
-    <t>عصير تانج برتقال بودر برطمان - 450 جم</t>
-  </si>
-  <si>
-    <t>بيبسى - 1.47 لتر</t>
-  </si>
-  <si>
-    <t>شاى الكبوس - 100 جرام</t>
-  </si>
-  <si>
-    <t>مناديل بابيا سحب 4 طبقة - 500 منديل</t>
-  </si>
-  <si>
-    <t>سكر حبوبة ابيض فاخر - 1 كجم</t>
-  </si>
-  <si>
-    <t>بسكويت اوريو مغطى بالشوكلاتة 2 قطع - 31.3 جم</t>
-  </si>
-  <si>
-    <t>عصير تانج مانجو بودر برطمان - 450 جم</t>
+    <t>طحينة الرشيدى الميزان - 255 جم</t>
+  </si>
+  <si>
+    <t>ستينج فراولة زجاج - 275 مل</t>
+  </si>
+  <si>
+    <t>رويال أعشاب كركديه - 20 فتلة</t>
+  </si>
+  <si>
+    <t>ستينج فراولة مينى تربو - 250 مل</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 540 مل</t>
+  </si>
+  <si>
+    <t>شاى الكبوس ناعم - 30 جم</t>
+  </si>
+  <si>
+    <t>المطبخ مكرونة هلالية- 400 جم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا جيب 2 طبقة - 10 منديل</t>
+  </si>
+  <si>
+    <t>جل باهى اسود - 40 جم</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 550 مل</t>
+  </si>
+  <si>
+    <t>بسكويت باى لاك ﺑﺎﻟﺘﻤﺮ- 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -425,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,19 +468,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>203.5</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -476,21 +488,21 @@
         <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>53.75</v>
+        <v>2640</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>88</v>
+        <v>965</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -499,100 +511,100 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2580</v>
+        <v>1236</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>1703</v>
+        <v>965</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>191.25</v>
+        <v>51.5</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>8688</v>
+        <v>1124</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>164.5</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>8688</v>
+        <v>4175</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>1215</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>8915</v>
+        <v>4175</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>204.5</v>
+        <v>1296</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>10093</v>
+        <v>6158</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>35.25</v>
+        <v>112.5</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>10093</v>
+        <v>8926</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -601,112 +613,163 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>2115</v>
+        <v>492.5</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>11581</v>
+        <v>9082</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>497.5</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>11793</v>
+        <v>9082</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>295</v>
+        <v>1800</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>12058</v>
+        <v>10927</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1680</v>
+        <v>207</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>12058</v>
+        <v>11089</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>105</v>
+        <v>172.5</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>23335</v>
+        <v>12871</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>79.5</v>
+        <v>66.5</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>23335</v>
+        <v>12923</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>636</v>
+        <v>807</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>12925</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>479.75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>24245</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>297</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>24245</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>24.75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,43 +37,28 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شاى ليبتون ناعم  - 250 جم</t>
-  </si>
-  <si>
-    <t>طحينة الرشيدى الميزان - 255 جم</t>
-  </si>
-  <si>
-    <t>ستينج فراولة زجاج - 275 مل</t>
-  </si>
-  <si>
-    <t>رويال أعشاب كركديه - 20 فتلة</t>
-  </si>
-  <si>
-    <t>ستينج فراولة مينى تربو - 250 مل</t>
-  </si>
-  <si>
-    <t>زيت حبوبة خليط - 540 مل</t>
-  </si>
-  <si>
-    <t>شاى الكبوس ناعم - 30 جم</t>
-  </si>
-  <si>
-    <t>المطبخ مكرونة هلالية- 400 جم</t>
-  </si>
-  <si>
-    <t>مناديل فاميليا جيب 2 طبقة - 10 منديل</t>
-  </si>
-  <si>
-    <t>جل باهى اسود - 40 جم</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 1 لتر</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 550 مل</t>
-  </si>
-  <si>
-    <t>بسكويت باى لاك ﺑﺎﻟﺘﻤﺮ- 5 جنية</t>
+    <t>عصير جهينة تفاح - 1 لتر</t>
+  </si>
+  <si>
+    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
+  </si>
+  <si>
+    <t>مكرونة خطيرة لسان عصفور - 280 جم</t>
+  </si>
+  <si>
+    <t>سندة سكر - 1 كجم</t>
+  </si>
+  <si>
+    <t>شعراوي لبان نعناع - 100 قطعه</t>
+  </si>
+  <si>
+    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر 12 كيس- 135 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهي يدوي لافندر  - 60 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -437,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,308 +453,223 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>88</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>55</v>
+        <v>347.75</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>88</v>
+        <v>3558</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>2640</v>
+        <v>28.25</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>965</v>
+        <v>3558</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>1236</v>
+        <v>678</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>965</v>
+        <v>3558</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>51.5</v>
+        <v>339</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>1124</v>
+        <v>3558</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>164.5</v>
+        <v>1356</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>4175</v>
+        <v>5872</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>4175</v>
+        <v>11404</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>1296</v>
+        <v>275</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>6158</v>
+        <v>21316</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>112.5</v>
+        <v>702</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>8926</v>
+        <v>21316</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>492.5</v>
+        <v>58.5</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>9082</v>
+        <v>21687</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>25.75</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>9082</v>
+        <v>21687</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>1800</v>
+        <v>309</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>10927</v>
+        <v>24566</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>207</v>
+        <v>96.75</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>11089</v>
+        <v>24567</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>172.5</v>
+        <v>91.25</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>12871</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>66.5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>12923</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>807</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>12925</v>
-      </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>479.75</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>24245</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>297</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>24245</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>24.75</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,34 +37,37 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير جهينة تفاح - 1 لتر</t>
-  </si>
-  <si>
-    <t>تونة صن شاين اكسبريس مفتتة بارد - 150 جم</t>
-  </si>
-  <si>
-    <t>مكرونة خطيرة لسان عصفور - 280 جم</t>
-  </si>
-  <si>
-    <t>سندة سكر - 1 كجم</t>
-  </si>
-  <si>
-    <t>شعراوي لبان نعناع - 100 قطعه</t>
-  </si>
-  <si>
-    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
-  </si>
-  <si>
-    <t>مسحوق باهى يدوى لافندر 12 كيس- 135 جم</t>
-  </si>
-  <si>
-    <t>مسحوق باهي يدوي لافندر  - 60 جم</t>
+    <t>جبنة عبور لاند فيتا بيضاء - 500 جم</t>
+  </si>
+  <si>
+    <t>سبرايت جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>سمن جنة ظرف - 50 جم</t>
+  </si>
+  <si>
+    <t>زيت صنى خليط عباد الشمس - 700 مل</t>
+  </si>
+  <si>
+    <t>عدس حبوبة بجبة - 500 جم</t>
+  </si>
+  <si>
+    <t>دهشة صلصة  برطمان - 280 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
+  </si>
+  <si>
+    <t>مناديل بابيا سحب بريميوم 3 طبقة عرض خاص - 500 منديل</t>
+  </si>
+  <si>
+    <t>مكرونة هلالية بساطة - 1 كجم</t>
+  </si>
+  <si>
+    <t>ماكسى ليمون نعناع - 1 لتر</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,223 +456,189 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>413</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>347.75</v>
+        <v>498</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3558</v>
+        <v>616</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>28.25</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>3558</v>
+        <v>1087</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>678</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3558</v>
+        <v>2161</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>339</v>
+        <v>657</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>3558</v>
+        <v>2323</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1356</v>
+        <v>252.5</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>5872</v>
+        <v>5081</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>11404</v>
+        <v>8216</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
       <c r="D8">
-        <v>275</v>
+        <v>13.75</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21316</v>
+        <v>8216</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>702</v>
+        <v>330</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>21316</v>
+        <v>13249</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>58.5</v>
+        <v>448.5</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>21687</v>
+        <v>13490</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>25.75</v>
+        <v>236.25</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>21687</v>
+        <v>25278</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>309</v>
+        <v>105.75</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>24566</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>96.75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>24567</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>91.25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,34 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>جبنة عبور لاند فيتا بيضاء - 500 جم</t>
-  </si>
-  <si>
-    <t>سبرايت جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>سمن جنة ظرف - 50 جم</t>
-  </si>
-  <si>
-    <t>زيت صنى خليط عباد الشمس - 700 مل</t>
-  </si>
-  <si>
-    <t>عدس حبوبة بجبة - 500 جم</t>
-  </si>
-  <si>
-    <t>دهشة صلصة  برطمان - 280 جم</t>
-  </si>
-  <si>
-    <t>هارفست فول مدمس سادة خصم %20 - 400 جم</t>
-  </si>
-  <si>
-    <t>مناديل بابيا سحب بريميوم 3 طبقة عرض خاص - 500 منديل</t>
-  </si>
-  <si>
-    <t>مكرونة هلالية بساطة - 1 كجم</t>
-  </si>
-  <si>
-    <t>ماكسى ليمون نعناع - 1 لتر</t>
+    <t>بيبسى كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>زيت عافية عباد الشمس - 700 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -425,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +432,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -465,180 +441,27 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>498</v>
+        <v>294.5</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>616</v>
+        <v>12661</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>290</v>
+        <v>379.5</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1087</v>
-      </c>
-      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>211</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>2161</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>657</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>2323</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>252.5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>5081</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>185</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>8216</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>13.75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>8216</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>330</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>13249</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>448.5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>13490</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>236.25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>25278</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>105.75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,55 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>بيبسى كانز جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>زيت عافية عباد الشمس - 700 مل</t>
+    <t>شاى ليبتون ناعم  - 250 جم</t>
+  </si>
+  <si>
+    <t>لبن بخيره - 1 لتر</t>
+  </si>
+  <si>
+    <t>طحينة البوادى - 125 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة برتقال - 235 مل</t>
+  </si>
+  <si>
+    <t>تونة دولفين قطع بارد - 185 جم</t>
+  </si>
+  <si>
+    <t>مناديل بابيا تواليت 10 رول + 2 رول هدية - 12 رول</t>
+  </si>
+  <si>
+    <t>لبان تشكلتس فراولة - 0.5 جنية</t>
+  </si>
+  <si>
+    <t>كابتشينو بونجورنو فانيليا - 14 جم</t>
+  </si>
+  <si>
+    <t>لبان ترايدنت توت و فراولة 65 قطعة- 1.5 جنية</t>
+  </si>
+  <si>
+    <t>لبان كلورتس قرفة و ليمون بالنعناع - 1 جنية</t>
+  </si>
+  <si>
+    <t>سندة سكر - 1 كجم</t>
+  </si>
+  <si>
+    <t>كوكا كولا تربو زيرو - 300 مل</t>
+  </si>
+  <si>
+    <t>كاتشب هاينز بطعم الشطة نار - 125 جم</t>
+  </si>
+  <si>
+    <t>سمنة قوت بطعم الزبدة الصفرا - 650 جم</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي 32 كيس - 50 جم</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -401,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +474,461 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>434</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>294.5</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>12661</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2544</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>379.5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>448.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>336</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>26.75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>535</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1070</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>336</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>267.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>417</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>190.75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>944</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>55.25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>944</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2652</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>944</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>663</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>944</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>1326</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>4033</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>290.75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>5209</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>5209</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1620</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>7119</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>114.25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>7119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1828</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>8635</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1810</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>8635</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>90.5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>10514</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1750</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>10514</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>87.5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>11404</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>265.5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>11454</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>11526</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>19.25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>11526</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>385</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>12141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>395</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>21793</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>124.75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
   <si>
     <t>Product ID</t>
   </si>
@@ -40,46 +40,118 @@
     <t>شاى ليبتون ناعم  - 250 جم</t>
   </si>
   <si>
-    <t>لبن بخيره - 1 لتر</t>
-  </si>
-  <si>
-    <t>طحينة البوادى - 125 جم</t>
-  </si>
-  <si>
-    <t>عصير جهينة برتقال - 235 مل</t>
-  </si>
-  <si>
-    <t>تونة دولفين قطع بارد - 185 جم</t>
-  </si>
-  <si>
-    <t>مناديل بابيا تواليت 10 رول + 2 رول هدية - 12 رول</t>
-  </si>
-  <si>
-    <t>لبان تشكلتس فراولة - 0.5 جنية</t>
-  </si>
-  <si>
-    <t>كابتشينو بونجورنو فانيليا - 14 جم</t>
-  </si>
-  <si>
-    <t>لبان ترايدنت توت و فراولة 65 قطعة- 1.5 جنية</t>
-  </si>
-  <si>
-    <t>لبان كلورتس قرفة و ليمون بالنعناع - 1 جنية</t>
-  </si>
-  <si>
-    <t>سندة سكر - 1 كجم</t>
-  </si>
-  <si>
-    <t>كوكا كولا تربو زيرو - 300 مل</t>
-  </si>
-  <si>
-    <t>كاتشب هاينز بطعم الشطة نار - 125 جم</t>
-  </si>
-  <si>
-    <t>سمنة قوت بطعم الزبدة الصفرا - 650 جم</t>
-  </si>
-  <si>
-    <t>اوكسي يدوي 32 كيس - 50 جم</t>
+    <t>عصير بيتى كوكتيل - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير بيتى برتقال - 235 مل</t>
+  </si>
+  <si>
+    <t>حلاوة الرشيدى الميزان - 250 جم</t>
+  </si>
+  <si>
+    <t>البوادي حلاوة- 255 جم</t>
+  </si>
+  <si>
+    <t>كلوركس كلور - 1.2 لتر</t>
+  </si>
+  <si>
+    <t>طحينة البوادى - 240 جم</t>
+  </si>
+  <si>
+    <t>البوادى حلاوة سادة- 550 جم</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون باوش - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1  لافندر باوش - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 لافندر - 3 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر - 3 لتر</t>
+  </si>
+  <si>
+    <t>كلوروكس باودر - 250 جم</t>
+  </si>
+  <si>
+    <t>كلوركس جل نعناع - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس متعدد الاستخدامات - 1 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون - 700 مل</t>
+  </si>
+  <si>
+    <t>سوفى ماكسى بالمسك طويل سميكة عرض خاص - 16 فوطة</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون - 4 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس الوان برائحة الزهور - 475 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور الوان برائحة الزهور - 2 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نعناع اخضر - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر ازرق - 700 مل</t>
+  </si>
+  <si>
+    <t>رويال أعشاب ينسون - 50 فتلة</t>
+  </si>
+  <si>
+    <t>صلصة دهشة - 370 جم</t>
+  </si>
+  <si>
+    <t>امريكانا حبوب ذرة حلوة - 330 جم</t>
+  </si>
+  <si>
+    <t>ستينج فراولة مينى تربو - 250 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل زهور - 750 مل</t>
+  </si>
+  <si>
+    <t>جبنة لا فاش كيرى كلاسيك - 8 مثلث</t>
+  </si>
+  <si>
+    <t>كلوركس الوان - 750 مل</t>
+  </si>
+  <si>
+    <t>جاجوار بوب كورن بيتزا كميه اكتر - 5 جنية</t>
+  </si>
+  <si>
+    <t>بيتي عصير مانجو عرض خاص 28ج - 1 لتر</t>
+  </si>
+  <si>
+    <t>بيتي عصير برتقال عرض خاص 27ج - 1 لتر</t>
+  </si>
+  <si>
+    <t>مسحوق بيرل لافندر - 120 جم</t>
+  </si>
+  <si>
+    <t>كلوركس جل + منظف ليمون - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل+ منظف زهور - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل + منظف نعناع  - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس ابيض لافندر - 4 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -443,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,13 +552,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>2544</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -497,438 +569,846 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>2544</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>448.25</v>
+        <v>207</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>336</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>26.75</v>
+        <v>189.25</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>535</v>
+        <v>44.5</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>336</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>267.5</v>
+        <v>1092</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>417</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>190.75</v>
+        <v>45.5</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>944</v>
+        <v>385</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>55.25</v>
+        <v>387</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>944</v>
+        <v>590</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>2652</v>
+        <v>307.5</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>944</v>
+        <v>590</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>663</v>
+        <v>1230</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>944</v>
+        <v>590</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>16</v>
       </c>
       <c r="D13">
-        <v>1326</v>
+        <v>615</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>4033</v>
+        <v>590</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>290.75</v>
+        <v>51.25</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>5209</v>
+        <v>2104</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>54</v>
+        <v>1077</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>5209</v>
+        <v>2104</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>1620</v>
+        <v>89.75</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>7119</v>
+        <v>2658</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>114.25</v>
+        <v>378.25</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>7119</v>
+        <v>2661</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1828</v>
+        <v>378.5</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>8635</v>
+        <v>2663</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1810</v>
+        <v>508</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>8635</v>
+        <v>2664</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>90.5</v>
+        <v>508</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>10514</v>
+        <v>2666</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>1750</v>
+        <v>735</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>10514</v>
+        <v>2669</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>87.5</v>
+        <v>509</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>11404</v>
+        <v>2670</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>265.5</v>
+        <v>447</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>11454</v>
+        <v>2673</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>85</v>
+        <v>507</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>11526</v>
+        <v>2912</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>19.25</v>
+        <v>600</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>11526</v>
+        <v>2912</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>12141</v>
+        <v>3386</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>395</v>
+        <v>323</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>21793</v>
+        <v>3387</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>124.75</v>
+        <v>211</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>3390</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>267</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>3392</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>618</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>3395</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>375</v>
+      </c>
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>3396</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>376.25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>3399</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>507</v>
+      </c>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>3982</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1341</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>3982</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>37.25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>5083</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>240</v>
+      </c>
+      <c r="E36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>5083</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>5889</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>5889</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>744</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>6158</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>115</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>6946</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>509</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>10149</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>10149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1280</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>10254</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>475</v>
+      </c>
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>12848</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>49.75</v>
+      </c>
+      <c r="E45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>13967</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>305.25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>13968</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>292.75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>20790</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>124.5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>23904</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>305</v>
+      </c>
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>23905</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>305</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>23906</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>305</v>
+      </c>
+      <c r="E51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>23908</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>211</v>
+      </c>
+      <c r="E52" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,22 +37,37 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>البوادي حلاوة- 255 جم</t>
-  </si>
-  <si>
-    <t>رويال أعشاب كركديه - 50 فتلة</t>
-  </si>
-  <si>
-    <t>مناديل فاميليا سحب تريبل 3 طبقة عرض خاص - 500 منديل</t>
-  </si>
-  <si>
-    <t>مناديل بابيا سحب 4 طبقة - 500 منديل</t>
-  </si>
-  <si>
-    <t>اهلاوي بسكويت ساده كابيتيانو حجم جديد - 5 جنية</t>
-  </si>
-  <si>
-    <t>أهلاوي دويتو شوكولاتة كابيتانو - 5 جنية</t>
+    <t>عسل البوادى اسود - 680 جم</t>
+  </si>
+  <si>
+    <t>عسل البوادى اسود - 355 جم</t>
+  </si>
+  <si>
+    <t>عصير جهينة تفاح - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة كوكتيل - 235 مل</t>
+  </si>
+  <si>
+    <t>عصير جهينة جوافة - 235 مل</t>
+  </si>
+  <si>
+    <t>سمن روابى - 700 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة خواتم - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة شعرية - 350 جم</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة هلالية - 350 جم</t>
+  </si>
+  <si>
+    <t>ميمكس بنبون برستس فراولة - 12 قطعه</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -413,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,24 +459,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>49.5</v>
+        <v>41.25</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -470,146 +485,248 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1188</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>4001</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>36.75</v>
+        <v>247.5</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>4001</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>1323</v>
+        <v>133.5</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>10517</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>417</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>11581</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>29</v>
-      </c>
       <c r="D7">
-        <v>492</v>
+        <v>22.25</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20486</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>48.75</v>
+        <v>534</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20486</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>292.5</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20498</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>303</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>20498</v>
+        <v>361</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>200</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>3994</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>619.75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>7703</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>171.25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>7704</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>169.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>7708</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>171.25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>22957</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>368</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>22957</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>50.5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
+      <c r="D17">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,37 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عسل البوادى اسود - 680 جم</t>
-  </si>
-  <si>
-    <t>عسل البوادى اسود - 355 جم</t>
-  </si>
-  <si>
-    <t>عصير جهينة تفاح - 235 مل</t>
-  </si>
-  <si>
-    <t>عصير جهينة كوكتيل - 235 مل</t>
-  </si>
-  <si>
-    <t>عصير جهينة جوافة - 235 مل</t>
-  </si>
-  <si>
-    <t>سمن روابى - 700 جم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة خواتم - 350 جم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة شعرية - 350 جم</t>
-  </si>
-  <si>
-    <t>مكرونة بساطة هلالية - 350 جم</t>
-  </si>
-  <si>
-    <t>ميمكس بنبون برستس فراولة - 12 قطعه</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>مناديل سمايل سحب 550 منديل</t>
+  </si>
+  <si>
+    <t>فلامنكو بطعم السوداني الشوفان 10 جنية</t>
   </si>
   <si>
     <t>YES</t>
@@ -428,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,274 +432,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>70</v>
+        <v>12212</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>41.25</v>
+        <v>257.5</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>70</v>
+        <v>13278</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>495</v>
+        <v>92.25</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>247.5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>71</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>133.5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>71</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>267</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>71</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>22.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>534</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>141</v>
-      </c>
-      <c r="B9" t="s">
         <v>9</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>195</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>142</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>361</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>200</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>3994</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>619.75</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>7703</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>171.25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>7704</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>169.5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>7708</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>171.25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>22957</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>368</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>22957</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,37 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مناديل سمايل سحب 550 منديل</t>
-  </si>
-  <si>
-    <t>فلامنكو بطعم السوداني الشوفان 10 جنية</t>
+    <t>عصير جهينة مانجو - 235 مل</t>
+  </si>
+  <si>
+    <t>سردين دولفين بارد - 125 جم</t>
+  </si>
+  <si>
+    <t>كابتشينو كوفى بريك بندق 8 ظرف - 18.5 جم</t>
+  </si>
+  <si>
+    <t>فاصوليا حبوبة بيضاء - 500 جم</t>
+  </si>
+  <si>
+    <t>مكرونة خطيرة فرن - 280 جم</t>
+  </si>
+  <si>
+    <t>بيبسى - 1.47 لتر</t>
+  </si>
+  <si>
+    <t>زيت حبوبة خليط - 540 مل</t>
+  </si>
+  <si>
+    <t>بسكويت اولكر بالتمر 4 قطع - 5 جنية</t>
+  </si>
+  <si>
+    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -401,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +456,257 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>12212</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>257.5</v>
+        <v>232.25</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>13278</v>
+        <v>1409</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>35.75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1409</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>92.25</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4">
+        <v>1787.5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>1409</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>536.25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>1409</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>1430</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2055</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>62.25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2055</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1494</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2326</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>335.25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>5868</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>136.75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>8915</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>186.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>8926</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>486.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>11510</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>50.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>11510</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>606</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>21687</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>330</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>21687</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>27.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,37 +37,37 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير جهينة مانجو - 235 مل</t>
-  </si>
-  <si>
-    <t>سردين دولفين بارد - 125 جم</t>
-  </si>
-  <si>
-    <t>كابتشينو كوفى بريك بندق 8 ظرف - 18.5 جم</t>
-  </si>
-  <si>
-    <t>فاصوليا حبوبة بيضاء - 500 جم</t>
+    <t>حبوبة خل- 900 مل</t>
+  </si>
+  <si>
+    <t>سفن اب كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>ميرندا برتقال كانز جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>ارز حبوبة عريض الحبة - 1 كجم</t>
+  </si>
+  <si>
+    <t>فانتا تفاح احمر ستار - 320 مل</t>
   </si>
   <si>
     <t>مكرونة خطيرة فرن - 280 جم</t>
   </si>
   <si>
-    <t>بيبسى - 1.47 لتر</t>
-  </si>
-  <si>
-    <t>زيت حبوبة خليط - 540 مل</t>
-  </si>
-  <si>
-    <t>بسكويت اولكر بالتمر 4 قطع - 5 جنية</t>
-  </si>
-  <si>
-    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
+    <t>كاتشب هاينز بطعم الشطة نار - 125 جم</t>
+  </si>
+  <si>
+    <t>سمنة الاصيل اصفر - 750 جم</t>
+  </si>
+  <si>
+    <t>كونري كورندبيف - 340 جم</t>
+  </si>
+  <si>
+    <t>تورتا رولز ديلايتس كيـك كاكاو محشو بكريمه الفانيليا ومغطي بالشكولاته - 10 جنية</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,33 +456,33 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>362</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>232.25</v>
+        <v>163.75</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1409</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>35.75</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -490,223 +490,189 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>1409</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1787.5</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>1409</v>
+        <v>1243</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>536.25</v>
+        <v>309.5</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>1409</v>
+        <v>3671</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1430</v>
+        <v>325.5</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2055</v>
+        <v>5868</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>62.25</v>
+        <v>138.25</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2055</v>
+        <v>11526</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1494</v>
+        <v>395</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>2326</v>
+        <v>11526</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
       <c r="D9">
-        <v>335.25</v>
+        <v>19.75</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>5868</v>
+        <v>12146</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>136.75</v>
+        <v>402.75</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>8915</v>
+        <v>22554</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>186.5</v>
+        <v>77.5</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>8926</v>
+        <v>22554</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>486.5</v>
+        <v>1860</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>11510</v>
+        <v>24708</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>50.5</v>
+        <v>918</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>11510</v>
+        <v>24708</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>606</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>21687</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>330</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>21687</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>27.5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,34 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>حبوبة خل- 900 مل</t>
-  </si>
-  <si>
-    <t>سفن اب كانز جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>ميرندا برتقال كانز جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>ارز حبوبة عريض الحبة - 1 كجم</t>
-  </si>
-  <si>
-    <t>فانتا تفاح احمر ستار - 320 مل</t>
-  </si>
-  <si>
-    <t>مكرونة خطيرة فرن - 280 جم</t>
-  </si>
-  <si>
-    <t>كاتشب هاينز بطعم الشطة نار - 125 جم</t>
-  </si>
-  <si>
-    <t>سمنة الاصيل اصفر - 750 جم</t>
-  </si>
-  <si>
-    <t>كونري كورندبيف - 340 جم</t>
-  </si>
-  <si>
-    <t>تورتا رولز ديلايتس كيـك كاكاو محشو بكريمه الفانيليا ومغطي بالشكولاته - 10 جنية</t>
+    <t>مكرونة الملكة مرمرية - 1 كجم</t>
+  </si>
+  <si>
+    <t>شويبس ليمون نعناع جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس - 950 مل</t>
+  </si>
+  <si>
+    <t>مناديل زينة تريو عرض خاص - 500 منديل</t>
   </si>
   <si>
     <t>YES</t>
@@ -425,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,7 +438,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -465,15 +447,15 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>163.75</v>
+        <v>305</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>435</v>
+        <v>5490</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -482,15 +464,15 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>290</v>
+        <v>289.25</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>436</v>
+        <v>8648</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -499,180 +481,27 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>165.5</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>1243</v>
+        <v>9760</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>309.5</v>
+        <v>407</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>3671</v>
-      </c>
-      <c r="B6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>325.5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>5868</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>138.25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>11526</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>395</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>11526</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>19.75</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>12146</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>402.75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>22554</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>77.5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>22554</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1860</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>24708</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>918</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>24708</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_701.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_701.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,61 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة الملكة مرمرية - 1 كجم</t>
-  </si>
-  <si>
-    <t>شويبس ليمون نعناع جيب - 240 مل</t>
-  </si>
-  <si>
-    <t>شويبس جولد اناناس - 950 مل</t>
-  </si>
-  <si>
-    <t>مناديل زينة تريو عرض خاص - 500 منديل</t>
+    <t>سفن اب ستار كانز - 320 مل</t>
+  </si>
+  <si>
+    <t>سفن اب تربو - 390 مل</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا تواليت 2 طبقة - 2 رول</t>
+  </si>
+  <si>
+    <t>تونة دولفين مفتتة حار 170 جم + 30 جم - 200 جم</t>
+  </si>
+  <si>
+    <t>كلوريل كلور 2*1 برائحة اللافندر - 1 كجم</t>
+  </si>
+  <si>
+    <t>مناديل بابيا تواليت 10 رول + 2 رول هدية - 12 رول</t>
+  </si>
+  <si>
+    <t>مكرونة بساطة فرن - 350 جم</t>
+  </si>
+  <si>
+    <t>سائل اطباق وفير بلس ليمون اصفر - 725 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول مقشور بالفلفل الحار خصم %15 - 400 جم</t>
+  </si>
+  <si>
+    <t>هارفست فول بالخلطة اللبنانية خصم %15 - 400 جم</t>
+  </si>
+  <si>
+    <t>كوكا كولا كانز ستار - 320 مل</t>
+  </si>
+  <si>
+    <t>كلوريل بقوة الاكسجين ازرق - 1 كجم</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا تواليت مضغوط - 2 رول</t>
+  </si>
+  <si>
+    <t>فاين مناديل تواليت كمفورت 2 رول 2 رول</t>
+  </si>
+  <si>
+    <t>فاين سمارت مناديل تواليت مضغوط 5+1 رول * 2 طبقة 6 رول</t>
+  </si>
+  <si>
+    <t>فاين سوبر مناديل مطبخ 2 رول * 2 طبقة 2 رول</t>
+  </si>
+  <si>
+    <t>ديفا منظف ايدى الترا كلين - 500 مل</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -407,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,24 +480,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>305</v>
+        <v>331.75</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>5490</v>
+        <v>1006</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -464,15 +506,15 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>289.25</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>8648</v>
+        <v>1703</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -481,27 +523,333 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>165.5</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>9760</v>
+        <v>2859</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>426</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2859</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1704</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2859</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>35.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2859</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>852</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>3230</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>160.25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>4033</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
         <v>29</v>
       </c>
-      <c r="D5">
-        <v>407</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+      <c r="D10">
+        <v>293.25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>7705</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>171.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>8600</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>10449</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>16.75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>10449</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>201</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>10454</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>17.25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>10454</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>207</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>11396</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>340</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>12613</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>305</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>13247</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>29</v>
+      </c>
+      <c r="D19">
+        <v>321.5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>13268</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>29</v>
+      </c>
+      <c r="D20">
+        <v>181.75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>13272</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>292.75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>13273</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>239.5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>23330</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>411</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
